--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatZ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatZ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
   <si>
     <t>TC</t>
   </si>
@@ -179,12 +184,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,13 +264,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -311,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +355,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,22 +599,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -597,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -611,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -625,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -639,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -653,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -674,24 +719,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.44140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.42578125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -731,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -748,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -766,7 +811,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -784,7 +829,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -802,7 +847,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -820,7 +865,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -838,7 +883,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -856,7 +901,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -881,24 +926,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="90.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="90.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -939,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -974,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1009,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -1079,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -1114,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
@@ -1149,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -1260,27 +1305,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -1324,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>51</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatZ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatZ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -162,9 +162,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -186,13 +183,13 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +261,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -926,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" activeCellId="1" sqref="H10 H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -1001,19 +998,19 @@
         <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
@@ -1027,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
@@ -1036,19 +1033,19 @@
         <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
@@ -1062,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
@@ -1071,19 +1068,19 @@
         <v>44</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
@@ -1097,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
@@ -1106,25 +1103,25 @@
         <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
@@ -1141,19 +1138,19 @@
         <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
@@ -1167,7 +1164,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
@@ -1176,19 +1173,19 @@
         <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
@@ -1202,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -1211,19 +1208,19 @@
         <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1237,7 +1234,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -1246,19 +1243,19 @@
         <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
@@ -1272,7 +1269,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
@@ -1281,19 +1278,19 @@
         <v>44</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
@@ -1305,10 +1302,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1377,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -1386,22 +1383,22 @@
         <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
